--- a/media/files/cooker_head.xlsx
+++ b/media/files/cooker_head.xlsx
@@ -1246,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1271,11 +1271,11 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
@@ -1295,11 +1295,11 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
@@ -1319,11 +1319,11 @@
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
@@ -1343,11 +1343,11 @@
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
@@ -1367,11 +1367,11 @@
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>20</v>
@@ -1391,11 +1391,11 @@
       <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>22</v>
@@ -1415,11 +1415,11 @@
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
@@ -1439,11 +1439,11 @@
       <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>27</v>
@@ -1463,11 +1463,11 @@
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>29</v>
@@ -1487,11 +1487,11 @@
       <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>31</v>
@@ -1511,11 +1511,11 @@
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>33</v>
@@ -1535,11 +1535,11 @@
       <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>35</v>
@@ -1559,11 +1559,11 @@
       <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>37</v>
@@ -1583,11 +1583,11 @@
       <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>39</v>
@@ -1607,11 +1607,11 @@
       <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>41</v>
